--- a/relatorios/repasses_liberados/dentistas/07219316429/2023-08-25_relatorio_repasses_07219316429.xlsx
+++ b/relatorios/repasses_liberados/dentistas/07219316429/2023-08-25_relatorio_repasses_07219316429.xlsx
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -16934,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="M361">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N361">
         <v>0</v>
@@ -16978,7 +16978,7 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N362">
         <v>0</v>
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -18782,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -18826,7 +18826,7 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N404">
         <v>0</v>
@@ -20058,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="M432">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N432">
         <v>0</v>
@@ -20146,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N434">
         <v>0</v>
@@ -21906,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="M474">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N474">
         <v>0</v>
@@ -21950,7 +21950,7 @@
         <v>0</v>
       </c>
       <c r="M475">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N475">
         <v>0</v>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N515">
         <v>0</v>
@@ -23754,7 +23754,7 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N516">
         <v>0</v>
@@ -23886,7 +23886,7 @@
         <v>0</v>
       </c>
       <c r="M519">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N519">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N538">
         <v>0</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="M541">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N541">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N550">
         <v>0</v>
@@ -25294,7 +25294,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N552">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N560">
         <v>0</v>
@@ -25734,7 +25734,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N561">
         <v>0</v>
@@ -25778,7 +25778,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N562">
         <v>0</v>
@@ -25866,7 +25866,7 @@
         <v>0</v>
       </c>
       <c r="M564">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N564">
         <v>0</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="M565">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N565">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/07219316429/2023-08-25_relatorio_repasses_07219316429.xlsx
+++ b/relatorios/repasses_liberados/dentistas/07219316429/2023-08-25_relatorio_repasses_07219316429.xlsx
@@ -2810,10 +2810,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N40">
-        <v>0.04000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -5362,10 +5362,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N98">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N114">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -6154,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -6330,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N120">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -6374,10 +6374,10 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N121">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -6418,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6462,10 +6462,10 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N123">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6506,10 +6506,10 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N124">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6550,10 +6550,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -6594,10 +6594,10 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -6638,10 +6638,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N127">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -6682,10 +6682,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -6726,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N129">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -6770,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N130">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -6814,10 +6814,10 @@
         <v>0</v>
       </c>
       <c r="M131">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N131">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -6858,10 +6858,10 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N132">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -6902,10 +6902,10 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N133">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -6946,10 +6946,10 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N134">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N135">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -7034,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N136">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -7078,10 +7078,10 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N137">
-        <v>13.192</v>
+        <v>9.893999999999998</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -7122,10 +7122,10 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N138">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -7166,10 +7166,10 @@
         <v>0</v>
       </c>
       <c r="M139">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N139">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -7210,10 +7210,10 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N140">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -7254,10 +7254,10 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N141">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -7298,10 +7298,10 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -7342,10 +7342,10 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N143">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -7386,10 +7386,10 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N144">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -7430,10 +7430,10 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N145">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -7474,10 +7474,10 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N146">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7518,10 +7518,10 @@
         <v>0</v>
       </c>
       <c r="M147">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N147">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -7562,10 +7562,10 @@
         <v>0</v>
       </c>
       <c r="M148">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N148">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -7606,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N149">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -7650,10 +7650,10 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N150">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -7694,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N151">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -7738,10 +7738,10 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N152">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -7782,10 +7782,10 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N153">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -7826,10 +7826,10 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N154">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N157">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N158">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -8046,10 +8046,10 @@
         <v>0</v>
       </c>
       <c r="M159">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N159">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8090,10 +8090,10 @@
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N160">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8134,10 +8134,10 @@
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N161">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -8178,10 +8178,10 @@
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N162">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N165">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -8354,10 +8354,10 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N166">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -8398,10 +8398,10 @@
         <v>0</v>
       </c>
       <c r="M167">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N167">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -8442,10 +8442,10 @@
         <v>0</v>
       </c>
       <c r="M168">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N168">
-        <v>18.336</v>
+        <v>13.752</v>
       </c>
     </row>
     <row r="169" spans="1:14">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N169">
-        <v>2.128</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -8530,10 +8530,10 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N170">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -8574,10 +8574,10 @@
         <v>0</v>
       </c>
       <c r="M171">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N171">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -8618,10 +8618,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N172">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -8662,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N173">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -8706,10 +8706,10 @@
         <v>0</v>
       </c>
       <c r="M174">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N174">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -8750,10 +8750,10 @@
         <v>0</v>
       </c>
       <c r="M175">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N175">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -8794,10 +8794,10 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N176">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -8838,10 +8838,10 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N177">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -8882,10 +8882,10 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N178">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N179">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -8970,10 +8970,10 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N180">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N181">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -9058,10 +9058,10 @@
         <v>0</v>
       </c>
       <c r="M182">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N182">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N183">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -9146,10 +9146,10 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N184">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="185" spans="1:14">
@@ -9190,10 +9190,10 @@
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N185">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="186" spans="1:14">
@@ -9234,10 +9234,10 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N186">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9278,10 +9278,10 @@
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N187">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -9322,10 +9322,10 @@
         <v>0</v>
       </c>
       <c r="M188">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N188">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N190">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -9454,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N191">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="M192">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N192">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -9586,10 +9586,10 @@
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N194">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="195" spans="1:14">
@@ -9630,10 +9630,10 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N195">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -9674,10 +9674,10 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N196">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -9718,10 +9718,10 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N197">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -9762,10 +9762,10 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N198">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -9806,10 +9806,10 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -9850,10 +9850,10 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N200">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -9894,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N201">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -9938,10 +9938,10 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N202">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -9982,10 +9982,10 @@
         <v>0</v>
       </c>
       <c r="M203">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N203">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -10026,10 +10026,10 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N204">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -10070,10 +10070,10 @@
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N205">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -10114,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N206">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -10158,10 +10158,10 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N207">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -10202,10 +10202,10 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -10378,10 +10378,10 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N212">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N213">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -10466,10 +10466,10 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N214">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -10510,10 +10510,10 @@
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N215">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -10554,10 +10554,10 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N216">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N217">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -10642,10 +10642,10 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N218">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -10686,10 +10686,10 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N219">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -10730,10 +10730,10 @@
         <v>0</v>
       </c>
       <c r="M220">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N220">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:14">
@@ -10774,10 +10774,10 @@
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N221">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="222" spans="1:14">
@@ -10818,10 +10818,10 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N222">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -10862,10 +10862,10 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N223">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -10906,10 +10906,10 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N224">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11038,10 +11038,10 @@
         <v>0</v>
       </c>
       <c r="M227">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N227">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -11082,10 +11082,10 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N228">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N229">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -11170,10 +11170,10 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -11214,10 +11214,10 @@
         <v>0</v>
       </c>
       <c r="M231">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N231">
-        <v>19.648</v>
+        <v>14.736</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -11258,10 +11258,10 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N232">
-        <v>2.128</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -11302,10 +11302,10 @@
         <v>0</v>
       </c>
       <c r="M233">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N233">
-        <v>7.923999999999999</v>
+        <v>5.943</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -11346,10 +11346,10 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N234">
-        <v>13.192</v>
+        <v>9.893999999999998</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N235">
-        <v>13.192</v>
+        <v>9.893999999999998</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -11434,10 +11434,10 @@
         <v>0</v>
       </c>
       <c r="M236">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N236">
-        <v>19.648</v>
+        <v>14.736</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -11478,10 +11478,10 @@
         <v>0</v>
       </c>
       <c r="M237">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N237">
-        <v>2.128</v>
+        <v>1.596</v>
       </c>
     </row>
     <row r="238" spans="1:14">
@@ -11522,10 +11522,10 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N238">
-        <v>7.923999999999999</v>
+        <v>5.943</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -11566,10 +11566,10 @@
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N239">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -11610,10 +11610,10 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N240">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -11654,10 +11654,10 @@
         <v>0</v>
       </c>
       <c r="M241">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N241">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -11874,10 +11874,10 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N246">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -11918,10 +11918,10 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N247">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12006,10 +12006,10 @@
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N249">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -12050,10 +12050,10 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N250">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -12094,10 +12094,10 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N251">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -12138,10 +12138,10 @@
         <v>0</v>
       </c>
       <c r="M252">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N252">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="253" spans="1:14">
@@ -12182,10 +12182,10 @@
         <v>0</v>
       </c>
       <c r="M253">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N253">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="254" spans="1:14">
@@ -12226,10 +12226,10 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N254">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -12270,10 +12270,10 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N255">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -12314,10 +12314,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N256">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12358,10 +12358,10 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N257">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="258" spans="1:14">
@@ -12402,10 +12402,10 @@
         <v>0</v>
       </c>
       <c r="M258">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N258">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -12446,10 +12446,10 @@
         <v>0</v>
       </c>
       <c r="M259">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N259">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -12490,10 +12490,10 @@
         <v>0</v>
       </c>
       <c r="M260">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N260">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -12534,10 +12534,10 @@
         <v>0</v>
       </c>
       <c r="M261">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N261">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="262" spans="1:14">
@@ -12578,10 +12578,10 @@
         <v>0</v>
       </c>
       <c r="M262">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N262">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="263" spans="1:14">
@@ -12622,10 +12622,10 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N263">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="264" spans="1:14">
@@ -12666,10 +12666,10 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N264">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -12710,10 +12710,10 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N265">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:14">
@@ -12754,10 +12754,10 @@
         <v>0</v>
       </c>
       <c r="M266">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N266">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:14">
@@ -12798,10 +12798,10 @@
         <v>0</v>
       </c>
       <c r="M267">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N267">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -12842,10 +12842,10 @@
         <v>0</v>
       </c>
       <c r="M268">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N268">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:14">
@@ -12886,10 +12886,10 @@
         <v>0</v>
       </c>
       <c r="M269">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N269">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="270" spans="1:14">
@@ -12930,10 +12930,10 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N270">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="271" spans="1:14">
@@ -12974,10 +12974,10 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N271">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="272" spans="1:14">
@@ -13018,10 +13018,10 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N272">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:14">
@@ -13062,10 +13062,10 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N273">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="274" spans="1:14">
@@ -13106,10 +13106,10 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N274">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="275" spans="1:14">
@@ -13150,10 +13150,10 @@
         <v>0</v>
       </c>
       <c r="M275">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N275">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:14">
@@ -13194,10 +13194,10 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N276">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="277" spans="1:14">
@@ -13238,10 +13238,10 @@
         <v>0</v>
       </c>
       <c r="M277">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N277">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="278" spans="1:14">
@@ -13282,10 +13282,10 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N278">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:14">
@@ -13326,10 +13326,10 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N279">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:14">
@@ -13370,10 +13370,10 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N280">
-        <v>2.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:14">
@@ -13414,10 +13414,10 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N281">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:14">
@@ -13458,10 +13458,10 @@
         <v>0</v>
       </c>
       <c r="M282">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N282">
-        <v>16.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:14">
@@ -13546,10 +13546,10 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N284">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="285" spans="1:14">
@@ -13634,10 +13634,10 @@
         <v>0</v>
       </c>
       <c r="M286">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N286">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="287" spans="1:14">
@@ -13678,10 +13678,10 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N287">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="288" spans="1:14">
@@ -13722,10 +13722,10 @@
         <v>0</v>
       </c>
       <c r="M288">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N288">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="289" spans="1:14">
@@ -13766,10 +13766,10 @@
         <v>0</v>
       </c>
       <c r="M289">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N289">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="290" spans="1:14">
@@ -13810,10 +13810,10 @@
         <v>0</v>
       </c>
       <c r="M290">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N290">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:14">
@@ -13854,10 +13854,10 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N291">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="292" spans="1:14">
@@ -13898,10 +13898,10 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N292">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="293" spans="1:14">
@@ -13942,10 +13942,10 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N293">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="294" spans="1:14">
@@ -13986,10 +13986,10 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:14">
@@ -14030,10 +14030,10 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:14">
@@ -14074,10 +14074,10 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="297" spans="1:14">
@@ -14118,10 +14118,10 @@
         <v>0</v>
       </c>
       <c r="M297">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N297">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="298" spans="1:14">
@@ -14162,10 +14162,10 @@
         <v>0</v>
       </c>
       <c r="M298">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N298">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:14">
@@ -14250,10 +14250,10 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N300">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="301" spans="1:14">
@@ -14294,10 +14294,10 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N301">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="302" spans="1:14">
@@ -14338,10 +14338,10 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N302">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="303" spans="1:14">
@@ -14382,10 +14382,10 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N303">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="304" spans="1:14">
@@ -14426,10 +14426,10 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N304">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="305" spans="1:14">
@@ -14470,10 +14470,10 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N305">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="306" spans="1:14">
@@ -14514,10 +14514,10 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N306">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="307" spans="1:14">
@@ -14558,10 +14558,10 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:14">
@@ -14602,10 +14602,10 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N308">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="309" spans="1:14">
@@ -14646,10 +14646,10 @@
         <v>0</v>
       </c>
       <c r="M309">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N309">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="310" spans="1:14">
@@ -14690,10 +14690,10 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:14">
@@ -14734,10 +14734,10 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N311">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="312" spans="1:14">
@@ -14778,10 +14778,10 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N312">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -14822,10 +14822,10 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N313">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="314" spans="1:14">
@@ -14866,10 +14866,10 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N314">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="315" spans="1:14">
@@ -14910,10 +14910,10 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
-        <v>23.936</v>
+        <v>17.952</v>
       </c>
     </row>
     <row r="316" spans="1:14">
@@ -14954,10 +14954,10 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N316">
-        <v>16.048</v>
+        <v>12.036</v>
       </c>
     </row>
     <row r="317" spans="1:14">
@@ -14998,10 +14998,10 @@
         <v>0</v>
       </c>
       <c r="M317">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N317">
-        <v>2.448</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="318" spans="1:14">
@@ -15042,10 +15042,10 @@
         <v>0</v>
       </c>
       <c r="M318">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N318">
-        <v>2.448</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="319" spans="1:14">
@@ -15086,10 +15086,10 @@
         <v>0</v>
       </c>
       <c r="M319">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N319">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="320" spans="1:14">
@@ -15130,10 +15130,10 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N320">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="321" spans="1:14">
@@ -15174,10 +15174,10 @@
         <v>0</v>
       </c>
       <c r="M321">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N321">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:14">
@@ -15218,10 +15218,10 @@
         <v>0</v>
       </c>
       <c r="M322">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N322">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="323" spans="1:14">
@@ -15262,10 +15262,10 @@
         <v>0</v>
       </c>
       <c r="M323">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N323">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="324" spans="1:14">
@@ -15306,10 +15306,10 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>0.4</v>
+        <v>65</v>
       </c>
       <c r="N324">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="325" spans="1:14">
@@ -15350,10 +15350,10 @@
         <v>0</v>
       </c>
       <c r="M325">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N325">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="326" spans="1:14">
@@ -15394,10 +15394,10 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N326">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="327" spans="1:14">
@@ -15438,10 +15438,10 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N327">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="328" spans="1:14">
@@ -15482,10 +15482,10 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N328">
-        <v>6.984000000000001</v>
+        <v>5.238</v>
       </c>
     </row>
     <row r="329" spans="1:14">
@@ -15526,10 +15526,10 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N329">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="330" spans="1:14">
@@ -15570,10 +15570,10 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N330">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="331" spans="1:14">
@@ -15614,10 +15614,10 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N331">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="332" spans="1:14">
@@ -15658,10 +15658,10 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N332">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="333" spans="1:14">
@@ -15702,10 +15702,10 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N333">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -15746,10 +15746,10 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N334">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="335" spans="1:14">
@@ -15966,10 +15966,10 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N339">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="340" spans="1:14">
@@ -16010,10 +16010,10 @@
         <v>0</v>
       </c>
       <c r="M340">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N340">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="341" spans="1:14">
@@ -16054,10 +16054,10 @@
         <v>0</v>
       </c>
       <c r="M341">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N341">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="342" spans="1:14">
@@ -16098,10 +16098,10 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N342">
-        <v>13</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="343" spans="1:14">
@@ -16318,10 +16318,10 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N347">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="348" spans="1:14">
@@ -16362,10 +16362,10 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N348">
-        <v>16.5</v>
+        <v>12.375</v>
       </c>
     </row>
     <row r="349" spans="1:14">
@@ -16406,10 +16406,10 @@
         <v>0</v>
       </c>
       <c r="M349">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N349">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="350" spans="1:14">
@@ -16450,10 +16450,10 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N350">
-        <v>2.64</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="351" spans="1:14">
@@ -16494,10 +16494,10 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N351">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:14">
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -16626,7 +16626,7 @@
         <v>0</v>
       </c>
       <c r="M354">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N354">
         <v>0</v>
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
       <c r="M357">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N357">
         <v>0</v>
@@ -16978,7 +16978,7 @@
         <v>0</v>
       </c>
       <c r="M362">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N362">
         <v>0</v>
@@ -17022,7 +17022,7 @@
         <v>0</v>
       </c>
       <c r="M363">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N363">
         <v>0</v>
@@ -17726,7 +17726,7 @@
         <v>0</v>
       </c>
       <c r="M379">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N379">
         <v>0</v>
@@ -17770,7 +17770,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -17858,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="M382">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N382">
         <v>0</v>
@@ -17902,7 +17902,7 @@
         <v>0</v>
       </c>
       <c r="M383">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N383">
         <v>0</v>
@@ -17990,7 +17990,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -18782,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -18870,7 +18870,7 @@
         <v>0</v>
       </c>
       <c r="M405">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N405">
         <v>0</v>
@@ -18914,7 +18914,7 @@
         <v>0</v>
       </c>
       <c r="M406">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N406">
         <v>0</v>
@@ -18958,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="M407">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N407">
         <v>0</v>
@@ -19134,7 +19134,7 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -19178,7 +19178,7 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N412">
         <v>0</v>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -19530,7 +19530,7 @@
         <v>0</v>
       </c>
       <c r="M420">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N420">
         <v>0</v>
@@ -19838,7 +19838,7 @@
         <v>0</v>
       </c>
       <c r="M427">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N427">
         <v>0</v>
@@ -19882,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="M428">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N428">
         <v>0</v>
@@ -19926,7 +19926,7 @@
         <v>0</v>
       </c>
       <c r="M429">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N429">
         <v>0</v>
@@ -19970,7 +19970,7 @@
         <v>0</v>
       </c>
       <c r="M430">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N430">
         <v>0</v>
@@ -20146,7 +20146,7 @@
         <v>0</v>
       </c>
       <c r="M434">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N434">
         <v>0</v>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="M436">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N436">
         <v>0</v>
@@ -20322,7 +20322,7 @@
         <v>0</v>
       </c>
       <c r="M438">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N438">
         <v>0</v>
@@ -20454,7 +20454,7 @@
         <v>0</v>
       </c>
       <c r="M441">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N441">
         <v>0</v>
@@ -20498,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="M442">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N442">
         <v>0</v>
@@ -20586,7 +20586,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N444">
         <v>0</v>
@@ -20762,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N448">
         <v>0</v>
@@ -20850,7 +20850,7 @@
         <v>0</v>
       </c>
       <c r="M450">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N450">
         <v>0</v>
@@ -20938,7 +20938,7 @@
         <v>0</v>
       </c>
       <c r="M452">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N452">
         <v>0</v>
@@ -20982,7 +20982,7 @@
         <v>0</v>
       </c>
       <c r="M453">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N453">
         <v>0</v>
@@ -21114,7 +21114,7 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="N456">
         <v>0</v>
@@ -21906,7 +21906,7 @@
         <v>0</v>
       </c>
       <c r="M474">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N474">
         <v>0</v>
@@ -22214,7 +22214,7 @@
         <v>0</v>
       </c>
       <c r="M481">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N481">
         <v>0</v>
@@ -22346,7 +22346,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N485">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="M494">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N494">
         <v>0</v>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -22918,7 +22918,7 @@
         <v>0</v>
       </c>
       <c r="M497">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N497">
         <v>0</v>
@@ -23006,7 +23006,7 @@
         <v>0</v>
       </c>
       <c r="M499">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N499">
         <v>0</v>
@@ -23050,7 +23050,7 @@
         <v>0</v>
       </c>
       <c r="M500">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N500">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>1</v>
       </c>
       <c r="M504">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N504">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:14">
@@ -23534,7 +23534,7 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N511">
         <v>0</v>
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="M515">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N515">
         <v>0</v>
@@ -23754,7 +23754,7 @@
         <v>0</v>
       </c>
       <c r="M516">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N516">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="M517">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N517">
         <v>0</v>
@@ -23842,7 +23842,7 @@
         <v>0</v>
       </c>
       <c r="M518">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N518">
         <v>0</v>
@@ -23886,7 +23886,7 @@
         <v>0</v>
       </c>
       <c r="M519">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N519">
         <v>0</v>
@@ -23930,7 +23930,7 @@
         <v>0</v>
       </c>
       <c r="M520">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N520">
         <v>0</v>
@@ -24194,7 +24194,7 @@
         <v>0</v>
       </c>
       <c r="M526">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N526">
         <v>0</v>
@@ -24238,7 +24238,7 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N527">
         <v>0</v>
@@ -24766,7 +24766,7 @@
         <v>0</v>
       </c>
       <c r="M539">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N539">
         <v>0</v>
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="M540">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N540">
         <v>0</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="M541">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="N541">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="M542">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N542">
         <v>0</v>
@@ -25030,7 +25030,7 @@
         <v>0</v>
       </c>
       <c r="M545">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N545">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N546">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="M548">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N548">
         <v>0</v>
@@ -25294,7 +25294,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25338,7 +25338,7 @@
         <v>0</v>
       </c>
       <c r="M552">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N552">
         <v>0</v>
@@ -25426,7 +25426,7 @@
         <v>0</v>
       </c>
       <c r="M554">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N554">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N557">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -25690,7 +25690,7 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N560">
         <v>0</v>
@@ -25778,7 +25778,7 @@
         <v>0</v>
       </c>
       <c r="M562">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N562">
         <v>0</v>
@@ -26262,7 +26262,7 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N573">
         <v>0</v>
@@ -26306,7 +26306,7 @@
         <v>0</v>
       </c>
       <c r="M574">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N574">
         <v>0</v>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="M584">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N584">
         <v>0</v>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="M585">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N585">
         <v>0</v>
